--- a/Annex_1.xlsx
+++ b/Annex_1.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22c28ce7928b7342/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22c28ce7928b7342/Documents/Annex_Rapport_stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF311BF6-AAD7-4343-91E0-90A36F94D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{FF311BF6-AAD7-4343-91E0-90A36F94D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88305E58-8464-4083-95F2-F2967F04DF8F}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tools_selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Tool_Information" sheetId="3" r:id="rId2"/>
+    <sheet name="Tools_comparaition" sheetId="1" r:id="rId1"/>
+    <sheet name="Tools_Information" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tools_selection!$A$1:$P$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tools_comparaition!$A$1:$P$11</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
@@ -2506,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -3160,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF81341-86FE-4492-A423-62597E78F31F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
